--- a/结果/SVM分类/标准差/SVM_AE_biaozhuncha.xlsx
+++ b/结果/SVM分类/标准差/SVM_AE_biaozhuncha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD7BFE-86D7-4872-8491-B30BCF227ACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A5F310-1CF5-4A6E-A402-6C2A345837B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9864" yWindow="2556" windowWidth="19668" windowHeight="11148" tabRatio="663" firstSheet="1" activeTab="5" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
+    <workbookView xWindow="2568" yWindow="2832" windowWidth="19668" windowHeight="9792" tabRatio="663" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
   </bookViews>
   <sheets>
     <sheet name="biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="biaozhuncha_d3" sheetId="4" r:id="rId4"/>
     <sheet name="biaozhuncha_d4" sheetId="5" r:id="rId5"/>
     <sheet name="biaozhuncha_d5" sheetId="6" r:id="rId6"/>
+    <sheet name="biaozhuncha_multi_attri" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12998AB6-9737-4B74-B63D-F322F7BD0B91}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1837,7 +1855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562541EA-C098-4C43-AD2B-A4221380579C}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -2021,4 +2039,32 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B45F108-3D13-493A-99D0-2FD62F0E2F1B}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/结果/SVM分类/标准差/SVM_AE_biaozhuncha.xlsx
+++ b/结果/SVM分类/标准差/SVM_AE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A5F310-1CF5-4A6E-A402-6C2A345837B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD42406-27C0-42D1-9BBD-29E3EE608598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="2832" windowWidth="19668" windowHeight="9792" tabRatio="663" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="663" firstSheet="1" activeTab="6" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
   </bookViews>
   <sheets>
     <sheet name="biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12998AB6-9737-4B74-B63D-F322F7BD0B91}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -618,10 +618,54 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="2">
+        <f t="shared" ref="A7:L7" si="0">AVERAGE(A2:A6)</f>
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99500000000000011</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99749999999999994</v>
+      </c>
+      <c r="D7" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98806139999999998</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99008800000000008</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99493340000000008</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -692,7 +736,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A2" sqref="A2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -877,13 +921,54 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="2">
+        <f t="shared" ref="A7:L7" si="0">AVERAGE(A2:A6)</f>
+        <v>0.86</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86624999999999996</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86374999999999991</v>
+      </c>
+      <c r="D7" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.85678739999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86892980000000009</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86910220000000005</v>
+      </c>
+      <c r="H7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86483559999999993</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86291739999999995</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85923119999999997</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1022,7 +1107,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1207,12 +1292,54 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="2">
+        <f t="shared" ref="A7:L7" si="0">AVERAGE(A2:A6)</f>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94374999999999998</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94625000000000004</v>
+      </c>
+      <c r="D7" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94132839999999995</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94483099999999998</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94870520000000003</v>
+      </c>
+      <c r="H7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95030820000000005</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94249519999999998</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94408519999999996</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1337,7 +1464,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A2" sqref="A2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1522,12 +1649,54 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="2">
+        <f t="shared" ref="A7:L7" si="0">AVERAGE(A2:A6)</f>
+        <v>0.98375000000000001</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98875000000000013</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98249999999999993</v>
+      </c>
+      <c r="D7" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98748619999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.984962</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98537379999999997</v>
+      </c>
+      <c r="H7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98003939999999989</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99244100000000002</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97972020000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1652,7 +1821,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A2" sqref="A2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1833,16 +2002,52 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f>AVERAGE(A2:A6)</f>
+        <f t="shared" ref="A7:L7" si="0">AVERAGE(A2:A6)</f>
         <v>0.99250000000000005</v>
       </c>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="D7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E7" s="3">
-        <f>AVERAGE(E2:E6)</f>
+        <f t="shared" si="0"/>
         <v>0.99188880000000013</v>
       </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99261099999999991</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9928570000000001</v>
+      </c>
+      <c r="H7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J7" s="3">
-        <f>AVERAGE(J2:J6)</f>
+        <f t="shared" si="0"/>
         <v>0.99259739999999996</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99268079999999992</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99273539999999993</v>
       </c>
     </row>
   </sheetData>
@@ -1853,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562541EA-C098-4C43-AD2B-A4221380579C}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A2" sqref="A2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2033,6 +2238,56 @@
       </c>
       <c r="L6">
         <v>0.96385500000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" ref="A7:L7" si="0">AVERAGE(A2:A6)</f>
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9837499999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98375000000000001</v>
+      </c>
+      <c r="D7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97558800000000012</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96741299999999986</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96775999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2043,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B45F108-3D13-493A-99D0-2FD62F0E2F1B}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2062,6 +2317,185 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>98.75</v>
+      </c>
+      <c r="B4">
+        <v>97.468400000000003</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>99.375</v>
+      </c>
+      <c r="B6">
+        <v>98.734200000000001</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>99.375</v>
+      </c>
+      <c r="B19">
+        <v>98.912999999999997</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>99.375</v>
+      </c>
+      <c r="B23">
+        <v>98.75</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>98.75</v>
+      </c>
+      <c r="B28">
+        <v>97.674400000000006</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>99.375</v>
+      </c>
+      <c r="B30">
+        <v>98.795199999999994</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>99.666666666666671</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" si="0"/>
+        <v>99.355680000000021</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结果/SVM分类/标准差/SVM_AE_biaozhuncha.xlsx
+++ b/结果/SVM分类/标准差/SVM_AE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD42406-27C0-42D1-9BBD-29E3EE608598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCE14A8-E66A-4ECD-A978-C9E5EACB7BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="663" firstSheet="1" activeTab="6" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="663" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
   </bookViews>
   <sheets>
     <sheet name="biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12998AB6-9737-4B74-B63D-F322F7BD0B91}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -630,10 +642,7 @@
         <f t="shared" si="0"/>
         <v>0.99749999999999994</v>
       </c>
-      <c r="D7" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -646,14 +655,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>0.98806139999999998</v>
@@ -674,10 +677,34 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -736,7 +763,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -933,10 +960,7 @@
         <f t="shared" si="0"/>
         <v>0.86374999999999991</v>
       </c>
-      <c r="D7" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0.85678739999999998</v>
@@ -949,14 +973,8 @@
         <f t="shared" si="0"/>
         <v>0.86910220000000005</v>
       </c>
-      <c r="H7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>0.86483559999999993</v>
@@ -1107,7 +1125,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1304,10 +1322,7 @@
         <f t="shared" si="0"/>
         <v>0.94625000000000004</v>
       </c>
-      <c r="D7" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0.94132839999999995</v>
@@ -1320,14 +1335,8 @@
         <f t="shared" si="0"/>
         <v>0.94870520000000003</v>
       </c>
-      <c r="H7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>0.95030820000000005</v>
@@ -1464,7 +1473,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1661,10 +1670,7 @@
         <f t="shared" si="0"/>
         <v>0.98249999999999993</v>
       </c>
-      <c r="D7" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0.98748619999999998</v>
@@ -1677,14 +1683,8 @@
         <f t="shared" si="0"/>
         <v>0.98537379999999997</v>
       </c>
-      <c r="H7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>0.98003939999999989</v>
@@ -1821,7 +1821,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2013,10 +2013,7 @@
         <f t="shared" si="0"/>
         <v>0.99250000000000005</v>
       </c>
-      <c r="D7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>0.99188880000000013</v>
@@ -2029,14 +2026,8 @@
         <f t="shared" si="0"/>
         <v>0.9928570000000001</v>
       </c>
-      <c r="H7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>0.99259739999999996</v>
@@ -2061,7 +2052,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2253,10 +2244,7 @@
         <f t="shared" si="0"/>
         <v>0.98375000000000001</v>
       </c>
-      <c r="D7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2269,14 +2257,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>0.97558800000000012</v>
@@ -2300,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B45F108-3D13-493A-99D0-2FD62F0E2F1B}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/结果/SVM分类/标准差/SVM_AE_biaozhuncha.xlsx
+++ b/结果/SVM分类/标准差/SVM_AE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCE14A8-E66A-4ECD-A978-C9E5EACB7BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7024BA8-352E-48CD-A5E9-39AB0B322373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="663" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="663" firstSheet="2" activeTab="6" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
   </bookViews>
   <sheets>
     <sheet name="biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12998AB6-9737-4B74-B63D-F322F7BD0B91}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -731,25 +731,65 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>0.99375000000000002</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.98806000000000005</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>0.995</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.99009000000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>0.99750000000000005</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.99492999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" ref="A17:J17" si="1">AVERAGE(A14:A16)</f>
+        <v>0.99541666666666673</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99102666666666661</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -763,7 +803,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1043,42 +1083,75 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>0.86</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>0.85679000000000005</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
+      <c r="J14">
+        <v>0.86484000000000005</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>0.86624999999999996</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>0.86892999999999998</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
+      <c r="J15">
+        <v>0.86292000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>0.86375000000000002</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>0.86909999999999998</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0.85923000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" ref="A17:J17" si="1">AVERAGE(A14:A16)</f>
+        <v>0.86333333333333329</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.86493999999999993</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86233000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1087,7 +1160,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1096,7 +1169,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1105,7 +1178,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1125,7 +1198,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1399,38 +1472,69 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>0.94499999999999995</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>0.94133</v>
+      </c>
       <c r="F14" s="1"/>
+      <c r="J14">
+        <v>0.95030999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>0.94374999999999998</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>0.94482999999999995</v>
+      </c>
       <c r="F15" s="1"/>
+      <c r="J15">
+        <v>0.9425</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>0.94625000000000004</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>0.94871000000000005</v>
+      </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="J16">
+        <v>0.94408999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>AVERAGE(A14:A16)</f>
+        <v>0.94499999999999995</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="2">
+        <f>AVERAGE(E14:E16)</f>
+        <v>0.94495666666666667</v>
+      </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J17" s="3">
+        <f>AVERAGE(J14:J16)</f>
+        <v>0.94563333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1438,7 +1542,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1446,7 +1550,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1454,7 +1558,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1473,7 +1577,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1747,12 +1851,22 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <f>AVERAGE(A7:C7)</f>
+        <v>0.98499999999999999</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <f>AVERAGE(E7:G7)</f>
+        <v>0.98594066666666669</v>
+      </c>
       <c r="F14" s="1"/>
+      <c r="J14">
+        <f>AVERAGE(J7:L7)</f>
+        <v>0.98406686666666665</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1818,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9CB7DC-E0F7-4A6B-9A65-A405DF44F97F}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2039,6 +2153,20 @@
       <c r="L7" s="3">
         <f t="shared" si="0"/>
         <v>0.99273539999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>AVERAGE(A7:C7)</f>
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(E7:G7)</f>
+        <v>0.99245226666666664</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGE(J7:L7)</f>
+        <v>0.99267119999999986</v>
       </c>
     </row>
   </sheetData>
@@ -2049,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562541EA-C098-4C43-AD2B-A4221380579C}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2270,6 +2398,20 @@
       <c r="L7" s="3">
         <f t="shared" si="0"/>
         <v>0.96775999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>AVERAGE(A7:C7)</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(E7:G7)</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGE(J7:L7)</f>
+        <v>0.97025366666666668</v>
       </c>
     </row>
   </sheetData>
@@ -2282,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B45F108-3D13-493A-99D0-2FD62F0E2F1B}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
